--- a/Mini Project 1/pd_cumulative_confirmed_data_date.xlsx
+++ b/Mini Project 1/pd_cumulative_confirmed_data_date.xlsx
@@ -448,85 +448,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2,152</t>
-        </is>
+          <t>8/19</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2,050</t>
-        </is>
+          <t>8/20</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1,879</t>
-        </is>
+          <t>8/21</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1,626</t>
-        </is>
+          <t>8/22</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1,417</t>
-        </is>
+          <t>8/23</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1,508</t>
-        </is>
+          <t>8/24</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2,155</t>
-        </is>
+          <t>8/25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1882</v>
       </c>
     </row>
   </sheetData>
